--- a/data/trans_bre/P21D_6_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21D_6_R-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.08321700006992923</v>
+        <v>0.08321700006992906</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1283678052722619</v>
+        <v>0.1283678052722616</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.360237820104366</v>
+        <v>-2.353805877000481</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.031583729708198</v>
+        <v>1.038290668490865</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -597,7 +597,7 @@
         <v>0.3807330012350859</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.8165329891610748</v>
+        <v>0.8165329891610751</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7364595614077174</v>
+        <v>-0.5166491792955579</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8664696667381342</v>
+        <v>-0.7201412003626494</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.226837360252883</v>
+        <v>1.236765267917857</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -652,11 +652,9 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.798197838662296</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.7067883387882236</v>
+      </c>
+      <c r="D11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -666,7 +664,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.289827253133957</v>
+        <v>1.306699121595096</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -696,10 +694,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3259225756583162</v>
+        <v>0.3311914843659345</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1238086413343738</v>
+        <v>-0.01256770453797485</v>
       </c>
     </row>
     <row r="15">
@@ -710,10 +708,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.018679959696093</v>
+        <v>3.029737305196547</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15.73549175857178</v>
+        <v>15.88980252907334</v>
       </c>
     </row>
     <row r="16">
@@ -728,10 +726,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6836109194473502</v>
+        <v>0.6836109194473506</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>1.240502289050305</v>
+        <v>1.240502289050306</v>
       </c>
     </row>
     <row r="17">
@@ -742,10 +740,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03936224825385005</v>
+        <v>-0.001819667787980285</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.05931682152360329</v>
+        <v>-0.07686309162610212</v>
       </c>
     </row>
     <row r="18">
@@ -756,10 +754,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.273069630961189</v>
+        <v>1.273222809116945</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5.119718985803885</v>
+        <v>4.445862623522665</v>
       </c>
     </row>
     <row r="19">
